--- a/team_specific_matrix/Baylor_A.xlsx
+++ b/team_specific_matrix/Baylor_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2286995515695067</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="C2">
-        <v>0.515695067264574</v>
+        <v>0.5297805642633229</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01345291479820628</v>
+        <v>0.01567398119122257</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1614349775784753</v>
+        <v>0.1536050156739812</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08071748878923767</v>
+        <v>0.0877742946708464</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="C3">
-        <v>0.064</v>
+        <v>0.05056179775280899</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.032</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.704</v>
+        <v>0.7359550561797753</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.192</v>
+        <v>0.1797752808988764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03571428571428571</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7857142857142857</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1785714285714286</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09433962264150944</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006289308176100629</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03144654088050314</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2830188679245283</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006289308176100629</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.169811320754717</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="R6">
-        <v>0.0880503144654088</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="S6">
-        <v>0.3207547169811321</v>
+        <v>0.3059360730593607</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07207207207207207</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01801801801801802</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07207207207207207</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0990990990990991</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01801801801801802</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2432432432432433</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="R7">
-        <v>0.07207207207207207</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="S7">
-        <v>0.4054054054054054</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1208053691275168</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02684563758389262</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="E8">
-        <v>0.006711409395973154</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="F8">
-        <v>0.0738255033557047</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1107382550335571</v>
+        <v>0.1061728395061728</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0302013422818792</v>
+        <v>0.03209876543209877</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2214765100671141</v>
+        <v>0.2172839506172839</v>
       </c>
       <c r="R8">
-        <v>0.08724832214765101</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="S8">
-        <v>0.3221476510067114</v>
+        <v>0.325925925925926</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00909090909090909</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06363636363636363</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1818181818181818</v>
+        <v>0.1633986928104575</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1909090909090909</v>
+        <v>0.1699346405228758</v>
       </c>
       <c r="R9">
-        <v>0.1363636363636364</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="S9">
-        <v>0.3181818181818182</v>
+        <v>0.3071895424836601</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,16 +970,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1174334140435835</v>
+        <v>0.1291208791208791</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02058111380145278</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E10">
-        <v>0.002421307506053269</v>
+        <v>0.003663003663003663</v>
       </c>
       <c r="F10">
         <v>0.07142857142857142</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1307506053268765</v>
+        <v>0.1291208791208791</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02300242130750605</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1997578692493947</v>
+        <v>0.2032967032967033</v>
       </c>
       <c r="R10">
-        <v>0.1138014527845036</v>
+        <v>0.1034798534798535</v>
       </c>
       <c r="S10">
-        <v>0.3208232445520581</v>
+        <v>0.3141025641025641</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1534090909090909</v>
+        <v>0.140495867768595</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07386363636363637</v>
+        <v>0.09504132231404959</v>
       </c>
       <c r="K11">
-        <v>0.2159090909090909</v>
+        <v>0.2190082644628099</v>
       </c>
       <c r="L11">
-        <v>0.5397727272727273</v>
+        <v>0.5330578512396694</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01704545454545454</v>
+        <v>0.01239669421487603</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7676767676767676</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1414141414141414</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="K12">
-        <v>0.0101010101010101</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="L12">
-        <v>0.0505050505050505</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5652173913043478</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3478260869565217</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08695652173913043</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0308641975308642</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="I15">
-        <v>0.04320987654320987</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="J15">
-        <v>0.3703703703703703</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="K15">
-        <v>0.05555555555555555</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01234567901234568</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1111111111111111</v>
+        <v>0.1022222222222222</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2098765432098765</v>
+        <v>0.2622222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01388888888888889</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2083333333333333</v>
+        <v>0.1980676328502415</v>
       </c>
       <c r="I16">
-        <v>0.04861111111111111</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="J16">
-        <v>0.3819444444444444</v>
+        <v>0.3719806763285024</v>
       </c>
       <c r="K16">
-        <v>0.08333333333333333</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="N16">
-        <v>0.006944444444444444</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="O16">
-        <v>0.0763888888888889</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1527777777777778</v>
+        <v>0.1642512077294686</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,31 +1395,31 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02922077922077922</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1948051948051948</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="I17">
-        <v>0.09415584415584416</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="J17">
-        <v>0.4123376623376623</v>
+        <v>0.4187192118226601</v>
       </c>
       <c r="K17">
-        <v>0.1038961038961039</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01298701298701299</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="N17">
-        <v>0.003246753246753247</v>
+        <v>0.002463054187192118</v>
       </c>
       <c r="O17">
         <v>0.07142857142857142</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07792207792207792</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02580645161290323</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2387096774193548</v>
+        <v>0.2284263959390863</v>
       </c>
       <c r="I18">
-        <v>0.1290322580645161</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="J18">
-        <v>0.3290322580645161</v>
+        <v>0.3248730964467005</v>
       </c>
       <c r="K18">
-        <v>0.09032258064516129</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006451612903225806</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07741935483870968</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1032258064516129</v>
+        <v>0.1015228426395939</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02145922746781116</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2031473533619456</v>
+        <v>0.2147302904564315</v>
       </c>
       <c r="I19">
-        <v>0.06723891273247497</v>
+        <v>0.07676348547717843</v>
       </c>
       <c r="J19">
-        <v>0.419170243204578</v>
+        <v>0.3921161825726141</v>
       </c>
       <c r="K19">
-        <v>0.1015736766809728</v>
+        <v>0.09647302904564316</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01716738197424893</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="N19">
-        <v>0.002861230329041488</v>
+        <v>0.003112033195020747</v>
       </c>
       <c r="O19">
-        <v>0.07582260371959942</v>
+        <v>0.07676348547717843</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09155937052932761</v>
+        <v>0.09854771784232365</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Baylor_A.xlsx
+++ b/team_specific_matrix/Baylor_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.213166144200627</v>
+        <v>0.2073863636363636</v>
       </c>
       <c r="C2">
-        <v>0.5297805642633229</v>
+        <v>0.5397727272727273</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01567398119122257</v>
+        <v>0.01420454545454545</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1536050156739812</v>
+        <v>0.1505681818181818</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0877742946708464</v>
+        <v>0.08806818181818182</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005617977528089887</v>
+        <v>0.005</v>
       </c>
       <c r="C3">
-        <v>0.05056179775280899</v>
+        <v>0.05</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02808988764044944</v>
+        <v>0.025</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7359550561797753</v>
+        <v>0.745</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1797752808988764</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02439024390243903</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7804878048780488</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1951219512195122</v>
+        <v>0.2045454545454546</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0821917808219178</v>
+        <v>0.0931174089068826</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0091324200913242</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0410958904109589</v>
+        <v>0.04453441295546558</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.273972602739726</v>
+        <v>0.2591093117408907</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0319634703196347</v>
+        <v>0.03238866396761134</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1643835616438356</v>
+        <v>0.1659919028340081</v>
       </c>
       <c r="R6">
-        <v>0.091324200913242</v>
+        <v>0.0931174089068826</v>
       </c>
       <c r="S6">
-        <v>0.3059360730593607</v>
+        <v>0.3036437246963563</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08441558441558442</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01298701298701299</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08441558441558442</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1038961038961039</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01298701298701299</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2142857142857143</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="R7">
-        <v>0.05844155844155844</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="S7">
-        <v>0.4285714285714285</v>
+        <v>0.4327485380116959</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1234567901234568</v>
+        <v>0.1185344827586207</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02962962962962963</v>
+        <v>0.02801724137931035</v>
       </c>
       <c r="E8">
-        <v>0.004938271604938272</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="F8">
-        <v>0.07407407407407407</v>
+        <v>0.07758620689655173</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1061728395061728</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03209876543209877</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2172839506172839</v>
+        <v>0.2133620689655172</v>
       </c>
       <c r="R8">
-        <v>0.08641975308641975</v>
+        <v>0.08836206896551724</v>
       </c>
       <c r="S8">
-        <v>0.325925925925926</v>
+        <v>0.3275862068965517</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.130718954248366</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006535947712418301</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08496732026143791</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1633986928104575</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006535947712418301</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1699346405228758</v>
+        <v>0.1736526946107785</v>
       </c>
       <c r="R9">
-        <v>0.130718954248366</v>
+        <v>0.125748502994012</v>
       </c>
       <c r="S9">
-        <v>0.3071895424836601</v>
+        <v>0.3173652694610778</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1291208791208791</v>
+        <v>0.1262214983713355</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02380952380952381</v>
+        <v>0.02361563517915309</v>
       </c>
       <c r="E10">
-        <v>0.003663003663003663</v>
+        <v>0.003257328990228013</v>
       </c>
       <c r="F10">
-        <v>0.07142857142857142</v>
+        <v>0.07491856677524431</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1291208791208791</v>
+        <v>0.1311074918566775</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02197802197802198</v>
+        <v>0.02117263843648208</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2032967032967033</v>
+        <v>0.1978827361563518</v>
       </c>
       <c r="R10">
-        <v>0.1034798534798535</v>
+        <v>0.1034201954397394</v>
       </c>
       <c r="S10">
-        <v>0.3141025641025641</v>
+        <v>0.3184039087947882</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.140495867768595</v>
+        <v>0.1330798479087452</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09504132231404959</v>
+        <v>0.08745247148288973</v>
       </c>
       <c r="K11">
-        <v>0.2190082644628099</v>
+        <v>0.2053231939163498</v>
       </c>
       <c r="L11">
-        <v>0.5330578512396694</v>
+        <v>0.5627376425855514</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01239669421487603</v>
+        <v>0.01140684410646388</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7727272727272727</v>
+        <v>0.7516339869281046</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1515151515151515</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K12">
-        <v>0.007575757575757576</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="L12">
-        <v>0.03787878787878788</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0303030303030303</v>
+        <v>0.0261437908496732</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6571428571428571</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05714285714285714</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02666666666666667</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1466666666666667</v>
+        <v>0.1516393442622951</v>
       </c>
       <c r="I15">
-        <v>0.03555555555555556</v>
+        <v>0.03688524590163934</v>
       </c>
       <c r="J15">
-        <v>0.3466666666666667</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="K15">
-        <v>0.07111111111111111</v>
+        <v>0.06967213114754098</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008888888888888889</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1022222222222222</v>
+        <v>0.09426229508196721</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2622222222222222</v>
+        <v>0.2663934426229508</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00966183574879227</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1980676328502415</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="I16">
-        <v>0.05797101449275362</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="J16">
-        <v>0.3719806763285024</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="K16">
-        <v>0.09178743961352658</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02415458937198068</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N16">
-        <v>0.004830917874396135</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="O16">
-        <v>0.07729468599033816</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1642512077294686</v>
+        <v>0.1652173913043478</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02463054187192118</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1896551724137931</v>
+        <v>0.1968680089485459</v>
       </c>
       <c r="I17">
-        <v>0.08866995073891626</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="J17">
-        <v>0.4187192118226601</v>
+        <v>0.4205816554809844</v>
       </c>
       <c r="K17">
-        <v>0.103448275862069</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01477832512315271</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="N17">
-        <v>0.002463054187192118</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="O17">
-        <v>0.07142857142857142</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08620689655172414</v>
+        <v>0.08501118568232663</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03045685279187817</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2284263959390863</v>
+        <v>0.2197309417040359</v>
       </c>
       <c r="I18">
-        <v>0.116751269035533</v>
+        <v>0.1121076233183857</v>
       </c>
       <c r="J18">
-        <v>0.3248730964467005</v>
+        <v>0.336322869955157</v>
       </c>
       <c r="K18">
-        <v>0.1015228426395939</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01015228426395939</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08629441624365482</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1015228426395939</v>
+        <v>0.1121076233183857</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02074688796680498</v>
+        <v>0.01931922723091076</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2147302904564315</v>
+        <v>0.2207911683532659</v>
       </c>
       <c r="I19">
-        <v>0.07676348547717843</v>
+        <v>0.07359705611775529</v>
       </c>
       <c r="J19">
-        <v>0.3921161825726141</v>
+        <v>0.3946642134314627</v>
       </c>
       <c r="K19">
-        <v>0.09647302904564316</v>
+        <v>0.09751609935602576</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02074688796680498</v>
+        <v>0.0202391904323827</v>
       </c>
       <c r="N19">
-        <v>0.003112033195020747</v>
+        <v>0.002759889604415824</v>
       </c>
       <c r="O19">
-        <v>0.07676348547717843</v>
+        <v>0.07543698252069918</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09854771784232365</v>
+        <v>0.09567617295308188</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Baylor_A.xlsx
+++ b/team_specific_matrix/Baylor_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2073863636363636</v>
+        <v>0.2042440318302387</v>
       </c>
       <c r="C2">
-        <v>0.5397727272727273</v>
+        <v>0.5464190981432361</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01420454545454545</v>
+        <v>0.01326259946949602</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1505681818181818</v>
+        <v>0.1485411140583554</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08806818181818182</v>
+        <v>0.08753315649867374</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.025</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.745</v>
+        <v>0.7546296296296297</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.175</v>
+        <v>0.1712962962962963</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2045454545454546</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0931174089068826</v>
+        <v>0.09448818897637795</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008097165991902834</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04453441295546558</v>
+        <v>0.04330708661417323</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2591093117408907</v>
+        <v>0.2519685039370079</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03238866396761134</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1659919028340081</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="R6">
-        <v>0.0931174089068826</v>
+        <v>0.09448818897637795</v>
       </c>
       <c r="S6">
-        <v>0.3036437246963563</v>
+        <v>0.3031496062992126</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08771929824561403</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01754385964912281</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07602339181286549</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1052631578947368</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01169590643274854</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2046783625730994</v>
+        <v>0.2022471910112359</v>
       </c>
       <c r="R7">
-        <v>0.06432748538011696</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="S7">
-        <v>0.4327485380116959</v>
+        <v>0.4213483146067415</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1185344827586207</v>
+        <v>0.1198347107438017</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02801724137931035</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="E8">
-        <v>0.004310344827586207</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="F8">
-        <v>0.07758620689655173</v>
+        <v>0.08057851239669421</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1120689655172414</v>
+        <v>0.109504132231405</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03017241379310345</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2133620689655172</v>
+        <v>0.2148760330578512</v>
       </c>
       <c r="R8">
-        <v>0.08836206896551724</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S8">
-        <v>0.3275862068965517</v>
+        <v>0.3223140495867768</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1317365269461078</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005988023952095809</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08383233532934131</v>
+        <v>0.08</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.155688622754491</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005988023952095809</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1736526946107785</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="R9">
-        <v>0.125748502994012</v>
+        <v>0.12</v>
       </c>
       <c r="S9">
-        <v>0.3173652694610778</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1262214983713355</v>
+        <v>0.1324921135646688</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02361563517915309</v>
+        <v>0.02287066246056782</v>
       </c>
       <c r="E10">
-        <v>0.003257328990228013</v>
+        <v>0.003154574132492113</v>
       </c>
       <c r="F10">
-        <v>0.07491856677524431</v>
+        <v>0.07413249211356467</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1311074918566775</v>
+        <v>0.1324921135646688</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02117263843648208</v>
+        <v>0.02129337539432177</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1978827361563518</v>
+        <v>0.194006309148265</v>
       </c>
       <c r="R10">
-        <v>0.1034201954397394</v>
+        <v>0.1025236593059937</v>
       </c>
       <c r="S10">
-        <v>0.3184039087947882</v>
+        <v>0.3170347003154574</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1330798479087452</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08745247148288973</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="K11">
-        <v>0.2053231939163498</v>
+        <v>0.2007299270072993</v>
       </c>
       <c r="L11">
-        <v>0.5627376425855514</v>
+        <v>0.5693430656934306</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01140684410646388</v>
+        <v>0.01094890510948905</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7516339869281046</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1764705882352941</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="K12">
-        <v>0.006535947712418301</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="L12">
-        <v>0.0392156862745098</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0261437908496732</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2564102564102564</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02459016393442623</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1516393442622951</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="I15">
-        <v>0.03688524590163934</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="J15">
-        <v>0.3442622950819672</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="K15">
-        <v>0.06967213114754098</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01229508196721311</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09426229508196721</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2663934426229508</v>
+        <v>0.2698412698412698</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008695652173913044</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.208695652173913</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="I16">
-        <v>0.06086956521739131</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="J16">
-        <v>0.3695652173913043</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="K16">
-        <v>0.08695652173913043</v>
+        <v>0.09349593495934959</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02173913043478261</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="N16">
-        <v>0.004347826086956522</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="O16">
-        <v>0.07391304347826087</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1652173913043478</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02237136465324385</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1968680089485459</v>
+        <v>0.2034632034632035</v>
       </c>
       <c r="I17">
-        <v>0.08724832214765101</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="J17">
-        <v>0.4205816554809844</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="K17">
-        <v>0.1006711409395973</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01565995525727069</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N17">
-        <v>0.002237136465324385</v>
+        <v>0.002164502164502165</v>
       </c>
       <c r="O17">
-        <v>0.06935123042505593</v>
+        <v>0.0670995670995671</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08501118568232663</v>
+        <v>0.08225108225108226</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02690582959641256</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2197309417040359</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="I18">
-        <v>0.1121076233183857</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="J18">
-        <v>0.336322869955157</v>
+        <v>0.3362068965517241</v>
       </c>
       <c r="K18">
-        <v>0.09865470852017937</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008968609865470852</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08520179372197309</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1121076233183857</v>
+        <v>0.1120689655172414</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01931922723091076</v>
+        <v>0.01964285714285714</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2207911683532659</v>
+        <v>0.2223214285714286</v>
       </c>
       <c r="I19">
-        <v>0.07359705611775529</v>
+        <v>0.075</v>
       </c>
       <c r="J19">
-        <v>0.3946642134314627</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K19">
-        <v>0.09751609935602576</v>
+        <v>0.09910714285714285</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0202391904323827</v>
+        <v>0.01964285714285714</v>
       </c>
       <c r="N19">
-        <v>0.002759889604415824</v>
+        <v>0.002678571428571429</v>
       </c>
       <c r="O19">
-        <v>0.07543698252069918</v>
+        <v>0.075</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09567617295308188</v>
+        <v>0.09375</v>
       </c>
     </row>
   </sheetData>
